--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Codility</t>
   </si>
@@ -60,6 +60,38 @@
 38.3013196529937
 &gt;&gt;&gt; timeit.timeit('l=[1]*2000')
 3.1312345970072784</t>
+    </r>
+  </si>
+  <si>
+    <t>MissingIntegrer</t>
+  </si>
+  <si>
+    <t>Carelessness in reading question</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sort() to simplify logic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and improve performance in some cases.
+Pay attention to boundary conditions</t>
     </r>
   </si>
 </sst>
@@ -701,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +750,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1039,13 +1074,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -1097,6 +1132,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" ht="28.5" spans="3:7">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Codility</t>
   </si>
@@ -93,6 +93,18 @@
       <t>, and improve performance in some cases.
 Pay attention to boundary conditions</t>
     </r>
+  </si>
+  <si>
+    <t>Lession 5</t>
+  </si>
+  <si>
+    <t>PassingCars</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Use 'calculation' instead of simply following the counting logic to improve performance</t>
   </si>
 </sst>
 </file>
@@ -1074,13 +1086,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -1149,6 +1161,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Codility</t>
   </si>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>Use 'calculation' instead of simply following the counting logic to improve performance</t>
+  </si>
+  <si>
+    <t>GenomicRangeQuery</t>
+  </si>
+  <si>
+    <t>Avoid processing the whole list.
+        1) only check the given partical
+        2) only check the existance of the required data, if found then stop   -- especially for 'large data with simple pattern'</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1183,6 +1191,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" ht="57" spans="3:7">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="21765" windowHeight="10380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="codility-list" sheetId="1" r:id="rId1"/>
+    <sheet name="Keys" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Codility</t>
   </si>
@@ -31,7 +32,16 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Lession 3</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
     <t>Lession 4</t>
+  </si>
+  <si>
+    <t>Counting Elements</t>
   </si>
   <si>
     <t>MaxCounters</t>
@@ -98,13 +108,24 @@
     <t>Lession 5</t>
   </si>
   <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Sum of slice of sequence A[N], Sum(A)  --&gt; O(N)
+e.g. For the sum of any slice A[P,Q], (let's say A[P,Q] has M possibilities),  then worst case --&gt; O(N*M)
+To simplify this:
+Prefix-sum:  
+Sum(A[X+1])=Sum(A[X])+A[X+1], so the result S=[Sum(A[0]), Sum(A[0:1], Sum(A[0:2)...Sum(A[0,N])) can be used for any Sum(A[P,Q]) by simply S[Q]-S[P-1],    O(N) instead of O(N*M)</t>
+  </si>
+  <si>
     <t>PassingCars</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Use 'calculation' instead of simply following the counting logic to improve performance</t>
+    <t>Use 'calculation' instead of simply following the counting logic to improve performance.
+Typical  prefix-sum</t>
   </si>
   <si>
     <t>GenomicRangeQuery</t>
@@ -113,6 +134,56 @@
     <t>Avoid processing the whole list.
         1) only check the given partical
         2) only check the existance of the required data, if found then stop   -- especially for 'large data with simple pattern'</t>
+  </si>
+  <si>
+    <t>MinAvgTwoSlice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's challenge to find a method with good performance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) prefix-sum
+2) Kadane's Algorithm</t>
+    </r>
+  </si>
+  <si>
+    <t>CountDiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) Take care of the Boundary conditions
+  2) Use 'calculation' instead of going through the list.</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>prefix-sum</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>For 'max sum(sub-array)', 
+local_maximum at index i is the maximum of A[i] and the sum of A[i] and local_maximum at index i-1.
+the time complexity of Kadane’s Algorithm is O(n)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=86CQq3pKSUw</t>
+  </si>
+  <si>
+    <t>﻿</t>
+  </si>
+  <si>
+    <t>https://medium.com/@rsinghal757/kadanes-algorithm-dynamic-programming-how-and-why-does-it-work-3fd8849ed73d</t>
   </si>
 </sst>
 </file>
@@ -125,7 +196,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,24 +205,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,172 +694,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -834,6 +938,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4191635</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1876425"/>
+          <a:ext cx="4039235" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,9 +1245,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1111,105 +1262,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="85.5" spans="1:7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.66</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="3:7">
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>0.4</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" ht="121" customHeight="1" spans="2:7">
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" ht="28.5" spans="3:7">
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="57" spans="3:7">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
         <v>0.62</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="3:7">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="3:7">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:G9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="103.875" customWidth="1"/>
+    <col min="4" max="4" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="57" spans="2:4">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="73" customHeight="1" spans="3:4">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.youtube.com/watch?v=86CQq3pKSUw"/>
+    <hyperlink ref="D8" r:id="rId3" display="https://medium.com/@rsinghal757/kadanes-algorithm-dynamic-programming-how-and-why-does-it-work-3fd8849ed73d"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -14,8 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yanxie</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>yanxie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+E: Easy
+M:Medium
+H: Hard</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Codility</t>
   </si>
@@ -121,7 +155,7 @@
     <t>PassingCars</t>
   </si>
   <si>
-    <t>L</t>
+    <t>E</t>
   </si>
   <si>
     <t>Use 'calculation' instead of simply following the counting logic to improve performance.
@@ -163,6 +197,60 @@
   2) Use 'calculation' instead of going through the list.</t>
   </si>
   <si>
+    <t>Lession 6</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>MaxProductOfThree</t>
+  </si>
+  <si>
+    <t>Missing a branch in logic</t>
+  </si>
+  <si>
+    <t>Keys:
+  1) use sort to simplify logic
+  2) process by scenario, not iteration</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>Keys:
+  1) use sort to simplify logic
+  2) Python's set() is useful to solve distict problem for list.</t>
+  </si>
+  <si>
+    <t>NumberOfDiscIntersections</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"open/close disc solution" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=HV8tzIiidSw</t>
+    </r>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -196,7 +284,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +317,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,6 +463,17 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -839,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,13 +960,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1245,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1257,7 +1359,8 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="6" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1304,13 +1407,13 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>0.66</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1321,13 +1424,13 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>0.4</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1339,11 +1442,11 @@
         <v>17</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" ht="28.5" spans="3:7">
       <c r="C10" t="s">
@@ -1352,7 +1455,7 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
@@ -1369,30 +1472,30 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>0.62</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="3:7">
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1400,11 +1503,72 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" ht="42.75" spans="3:7">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="3:7">
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="3:7">
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1413,6 +1577,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1435,31 +1600,31 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="57" spans="2:4">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="73" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20235" windowHeight="12405" activeTab="3"/>
+    <workbookView windowWidth="13740" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="codility-list" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
-    <sheet name="guide" sheetId="3" r:id="rId3"/>
-    <sheet name="resources" sheetId="4" r:id="rId4"/>
+    <sheet name="python-tools" sheetId="5" r:id="rId3"/>
+    <sheet name="guide" sheetId="3" r:id="rId4"/>
+    <sheet name="resources" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>Codility</t>
   </si>
@@ -323,7 +324,20 @@
     <t>Performance &amp; Logic</t>
   </si>
   <si>
-    <t>ref:   https://curt-park.github.io/2018-09-06/algorithm-equileader/</t>
+    <t>Use record (structure) to track all the information required during the process -- try get it done in one loop -- O(N). Avoiding loop in loop.
+ref:   https://curt-park.github.io/2018-09-06/algorithm-equileader/</t>
+  </si>
+  <si>
+    <t>Lesson 9</t>
+  </si>
+  <si>
+    <t>Maximum slice problem</t>
+  </si>
+  <si>
+    <t>MaxProfit</t>
+  </si>
+  <si>
+    <t>Keys:  Kadane's Algorithm</t>
   </si>
   <si>
     <t>ref</t>
@@ -347,6 +361,12 @@
   </si>
   <si>
     <t>https://medium.com/@rsinghal757/kadanes-algorithm-dynamic-programming-how-and-why-does-it-work-3fd8849ed73d</t>
+  </si>
+  <si>
+    <t>collections.Counter()</t>
+  </si>
+  <si>
+    <t>Count elements in an array</t>
   </si>
   <si>
     <t>﻿学习普林斯顿老大爷的算法课</t>
@@ -480,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -517,6 +537,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="8"/>
@@ -533,15 +566,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,6 +594,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -561,8 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,46 +678,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,50 +696,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,31 +733,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,145 +871,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,8 +924,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,7 +934,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,6 +965,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,196 +1018,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,7 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1173,84 +1193,87 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1291,7 +1314,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1800225" y="1876425"/>
+          <a:off x="1594485" y="1971675"/>
           <a:ext cx="4039235" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1566,21 +1589,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="77.5" customWidth="1"/>
+    <col min="1" max="1" width="1.62857142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="25.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="8.24761904761905" customWidth="1"/>
+    <col min="5" max="5" width="14.1238095238095" customWidth="1"/>
+    <col min="6" max="6" width="22.3714285714286" customWidth="1"/>
+    <col min="7" max="7" width="77.5047619047619" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1622,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="1:7">
+    <row r="7" ht="90" spans="1:7">
       <c r="A7" s="7"/>
       <c r="C7" t="s">
         <v>10</v>
@@ -1630,30 +1653,30 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>0.66</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="3:7">
+    <row r="8" ht="30" spans="3:7">
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>0.4</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1661,24 +1684,24 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" ht="28.5" spans="3:7">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="45" spans="3:7">
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
@@ -1688,51 +1711,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="57" spans="3:7">
+    <row r="11" ht="60" spans="3:7">
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>0.62</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="42.75" spans="3:8">
-      <c r="C12" s="10" t="s">
+    <row r="12" ht="45" spans="3:8">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="3:7">
+    <row r="13" ht="30" spans="3:7">
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1746,17 +1769,17 @@
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="8"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" ht="42.75" spans="3:7">
+    <row r="15" ht="45" spans="3:7">
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>0.55</v>
       </c>
       <c r="F15" t="s">
@@ -1766,34 +1789,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="42.75" spans="3:7">
+    <row r="16" ht="45" spans="3:7">
       <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="3:8">
-      <c r="C17" s="10" t="s">
+    <row r="17" ht="30" spans="3:8">
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1815,7 +1838,7 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1826,7 +1849,7 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="G20" t="s">
@@ -1843,7 +1866,7 @@
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1877,7 @@
       <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="G22" t="s">
@@ -1879,28 +1902,49 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" ht="45" spans="3:8">
       <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>0.66</v>
       </c>
       <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="17" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="2:3">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="3:7">
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1922,41 +1966,41 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="103.875" customWidth="1"/>
-    <col min="4" max="4" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="0.876190476190476" customWidth="1"/>
+    <col min="2" max="2" width="20.752380952381" customWidth="1"/>
+    <col min="3" max="3" width="103.87619047619" customWidth="1"/>
+    <col min="4" max="4" width="45.8761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="57" spans="2:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="60" spans="2:4">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="73" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1973,205 +2017,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B54"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="82" customWidth="1"/>
+    <col min="2" max="2" width="20.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="29.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="C2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2183,36 +2046,246 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="82" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="1.62857142857143" customWidth="1"/>
+    <col min="2" max="2" width="41.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/PY/codility/CodilityStudyRec.xlsx
+++ b/PY/codility/CodilityStudyRec.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21765" windowHeight="10380"/>
+    <workbookView windowWidth="20235" windowHeight="12405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="codility-list" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
+    <sheet name="guide" sheetId="3" r:id="rId3"/>
+    <sheet name="resources" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>Codility</t>
   </si>
@@ -66,13 +68,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Lession 3</t>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Lesson 3</t>
   </si>
   <si>
     <t>Time Complexity</t>
   </si>
   <si>
-    <t>Lession 4</t>
+    <t>Lesson 4</t>
   </si>
   <si>
     <t>Counting Elements</t>
@@ -88,6 +93,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>To initialize a list with repeated value efficently, use []*N.</t>
     </r>
     <r>
@@ -114,6 +126,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Use </t>
     </r>
     <r>
@@ -139,7 +158,7 @@
     </r>
   </si>
   <si>
-    <t>Lession 5</t>
+    <t>Lesson 5</t>
   </si>
   <si>
     <t>Prefix Sum</t>
@@ -174,6 +193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It's challenge to find a method with good performance.
 </t>
     </r>
@@ -190,6 +216,9 @@
     </r>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>CountDiv</t>
   </si>
   <si>
@@ -197,7 +226,7 @@
   2) Use 'calculation' instead of going through the list.</t>
   </si>
   <si>
-    <t>Lession 6</t>
+    <t>Lesson 6</t>
   </si>
   <si>
     <t>Sorting</t>
@@ -226,6 +255,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Method:  </t>
     </r>
     <r>
@@ -251,6 +287,45 @@
     </r>
   </si>
   <si>
+    <t>Lesson 7</t>
+  </si>
+  <si>
+    <t>Stacks and Queues</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>logic &amp; method</t>
+  </si>
+  <si>
+    <t>Nesting</t>
+  </si>
+  <si>
+    <t>StoneWall</t>
+  </si>
+  <si>
+    <t>Lesson8</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Dominator</t>
+  </si>
+  <si>
+    <t>EquiLeader</t>
+  </si>
+  <si>
+    <t>Performance &amp; Logic</t>
+  </si>
+  <si>
+    <t>ref:   https://curt-park.github.io/2018-09-06/algorithm-equileader/</t>
+  </si>
+  <si>
     <t>ref</t>
   </si>
   <si>
@@ -272,6 +347,132 @@
   </si>
   <si>
     <t>https://medium.com/@rsinghal757/kadanes-algorithm-dynamic-programming-how-and-why-does-it-work-3fd8849ed73d</t>
+  </si>
+  <si>
+    <t>﻿学习普林斯顿老大爷的算法课</t>
+  </si>
+  <si>
+    <t>﻿刷题对找工作的帮助至少占90%，当你不知道该干什么的时候去刷题吧，一定不亏。</t>
+  </si>
+  <si>
+    <t>无论你基础如何，我强烈推荐Princeton Robert Sedgewick教授的Algorithms, Part I和Algorithms, Part II，好好听一遍受用终身。老人家的Slides整理得相当之好，他的code和证明也非常清晰。这两门课覆盖了大多数面试中会用到的算法，但最大的缺点是没有讲Dynamic Programming。</t>
+  </si>
+  <si>
+    <t>所以我推荐细读Introduction To Algorithms中关于Dynamic Programming的这一章，有时间的话建议通读全书。</t>
+  </si>
+  <si>
+    <t>还有一本必读的书是Cracking the Coding Interview，但我当时没看，有时间的话一定要看看。</t>
+  </si>
+  <si>
+    <t>学了这些之后基本你可以刷大部分题了，然后你每隔几天可以学习一下下面的算法：</t>
+  </si>
+  <si>
+    <t>Floyd Cycle Detection, Boyer-Moore Voting Algorithm, Reservoir Sampling, Euler Path (Hierholzer's algorithm), Binary indexed tree (Fenwick Tree), Segment Tree, Morris Tree Traversal</t>
+  </si>
+  <si>
+    <t>你刷的前两百道题可能会比较吃力，后面应该越刷越顺。</t>
+  </si>
+  <si>
+    <t>刷题方式大体分为兔派和龟派，我属于龟派。</t>
+  </si>
+  <si>
+    <t>兔派的方式大概是扫一遍题目，想个几分钟，如果做不出来马上看答案，看懂后自己Implement。</t>
+  </si>
+  <si>
+    <t>兔派的优点是速度快，效率高，适合记忆力比较强的人，适合面Facebook和LinkedIn等不怎么出新题的公司。</t>
+  </si>
+  <si>
+    <t>龟派的方式大概是尽量自己解题，即使耗掉半天也自己解，实在做不出来的情况下看看提示再自己解。</t>
+  </si>
+  <si>
+    <t>龟派的优点是锻炼思维能力，适合分析能力较强的人，适合面谷歌等只出新题的公司。</t>
+  </si>
+  <si>
+    <t>刷题时间：我建议白天刷题，原因是面试都是在白天，而且晚上刷题的话想不出来很痛苦……</t>
+  </si>
+  <si>
+    <t>临近面试时建议：每天刷一两道新题，帮助活跃思维。刷高频题，刷自己经常写错的题，刷近期面经（请斟酌：面经有很多问题，比如没答案，比如题表达错误等等）。</t>
+  </si>
+  <si>
+    <t>系统设计：</t>
+  </si>
+  <si>
+    <t>这个一开始大家一定很头大，其实还是有套路的。建议早点开始准备，学习好数据库。</t>
+  </si>
+  <si>
+    <t>一定要学一学Grokking the System Design Interview，最好再自己花钱上个补习班。</t>
+  </si>
+  <si>
+    <t>系统设计的书很少，目前最公认的是这本：Designing Data-Intensive Applications.</t>
+  </si>
+  <si>
+    <t>数据库：</t>
+  </si>
+  <si>
+    <t>我认为数据库是除了算法之外对找工作最有用的一门课，占5%吧。如果实在没时间可以不看，我大部分转专业的朋友都完全不懂数据库，但是也都找到了理想的工作。如果真想学好数据库的话，至少要花两个月时间吧。</t>
+  </si>
+  <si>
+    <t>建议SQL和NoSQL每个掌握一样，比如MySQL和Cassandra。</t>
+  </si>
+  <si>
+    <t>数据库的书我推荐这本：Database System Concepts。</t>
+  </si>
+  <si>
+    <t>Object Oriented Design &amp; Design Patterns：</t>
+  </si>
+  <si>
+    <t>传说是Amazon必考的内容，微软偶尔也考。如果你不面这两家可以不准备。</t>
+  </si>
+  <si>
+    <t>推荐书：</t>
+  </si>
+  <si>
+    <t>Design Patterns, Elements of Reusable Object-Oriented Software (终极参考书)</t>
+  </si>
+  <si>
+    <t>Head First Object-Oriented Analysis and Design (好理解的一本书)</t>
+  </si>
+  <si>
+    <t>Agile Principles Patterns and Practices (重点看S.O.L.I.D principles)</t>
+  </si>
+  <si>
+    <t>其他CS知识：</t>
+  </si>
+  <si>
+    <t>如果你时间真的超级充裕的话我还建议你学习以下内容：</t>
+  </si>
+  <si>
+    <t>Operating Systems，面SRE的时候很容易考到里面的知识。 推荐书：Operating Systems 龙书。</t>
+  </si>
+  <si>
+    <t>Computer Networking，同样的，SRE容易被考。推荐书：Computer Networking - A Top-Down Approach (6th Edition)。</t>
+  </si>
+  <si>
+    <t>﻿顺序是这样的：</t>
+  </si>
+  <si>
+    <t>1, 几乎不想去的公司（Ebay, Walmart, Cisco, Pure Storage等等）。</t>
+  </si>
+  <si>
+    <t>2, 喜欢但是很远的公司（Uber, Lyft, Pinterest, Yelp, Salesforce, Twitter等等）。</t>
+  </si>
+  <si>
+    <t>3, 喜欢的公司（Microsoft, Apple, Tesla, PayPal等等）。</t>
+  </si>
+  <si>
+    <t>4, Dream Companies（Google, Facebook, LinkedIn, Amazon, Netflix等等）</t>
+  </si>
+  <si>
+    <t>Hackerranks</t>
+  </si>
+  <si>
+    <t>leetcode</t>
+  </si>
+  <si>
+    <t>codechef</t>
+  </si>
+  <si>
+    <t>codility</t>
   </si>
 </sst>
 </file>
@@ -281,12 +482,19 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -303,12 +511,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
@@ -317,6 +526,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -326,6 +542,113 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,129 +660,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +692,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,31 +713,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,151 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,21 +898,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,26 +934,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -770,6 +945,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,197 +974,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,13 +1566,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -1362,213 +1581,326 @@
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="77.5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="85.5" spans="1:7">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
         <v>0.66</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="3:7">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.4</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="11" t="s">
         <v>15</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="121" customHeight="1" spans="2:7">
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" ht="28.5" spans="3:7">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11">
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="57" spans="3:7">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11">
         <v>0.62</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="3:8">
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="42.75" spans="3:7">
-      <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="3:7">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8">
+        <v>21</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="G14" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" ht="42.75" spans="3:7">
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.55</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="3:7">
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="3:7">
-      <c r="C17" s="7" t="s">
-        <v>35</v>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="3:8">
+      <c r="C17" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1919,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1600,31 +1932,31 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="57" spans="2:4">
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="73" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1636,4 +1968,255 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="82" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>